--- a/exampleProblems/Artemisinin/Artemisinin.xlsx
+++ b/exampleProblems/Artemisinin/Artemisinin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dch1amk/Desktop/raw_nmr/Artemisinin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/Artemisinin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D5328C-ECD4-F148-9A89-EBC7A23F671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{10D5328C-ECD4-F148-9A89-EBC7A23F671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5C6FDF-B130-4821-A4BD-B9C85719D83A}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="460" windowWidth="36820" windowHeight="27080" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -685,7 +685,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="71" customWidth="1"/>
   </cols>
@@ -712,16 +712,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -748,7 +749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -777,7 +778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -804,7 +805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -831,7 +832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -858,7 +859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -872,10 +873,10 @@
         <v>40</v>
       </c>
       <c r="E6" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="11">
-        <v>1.0900000000000001</v>
+        <v>2</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>41</v>
@@ -887,7 +888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -914,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -928,10 +929,10 @@
         <v>46</v>
       </c>
       <c r="E8" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="11">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>47</v>
@@ -943,7 +944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -972,7 +973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1109,7 +1110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1204,9 +1205,9 @@
       <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -1233,7 +1234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1258,7 +1259,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1283,7 +1284,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1308,7 +1309,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1333,7 +1334,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1358,7 +1359,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1383,7 +1384,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1408,7 +1409,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1433,7 +1434,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1458,7 +1459,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1483,7 +1484,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1533,7 +1534,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1583,7 +1584,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1655,9 +1656,9 @@
       <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1701,7 +1702,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
+    <row r="2" spans="1:22" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1734,7 +1735,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1767,7 +1768,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1800,7 +1801,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1833,7 +1834,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1866,7 +1867,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1899,7 +1900,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1932,7 +1933,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1947,7 +1948,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1962,7 +1963,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1977,7 +1978,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2292,9 +2293,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2327,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2359,7 +2360,7 @@
       <c r="K2" s="10"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2391,7 +2392,7 @@
       <c r="K3" s="10"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="17">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2423,7 +2424,7 @@
       <c r="K4" s="10"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="17">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2455,7 +2456,7 @@
       <c r="K5" s="10"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="17">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2486,7 +2487,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="17">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="K7" s="10"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="17">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2550,7 +2551,7 @@
       <c r="K8" s="10"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="17">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2582,7 +2583,7 @@
       <c r="K9" s="10"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="17">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2614,7 +2615,7 @@
       <c r="K10" s="10"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="17">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2646,7 +2647,7 @@
       <c r="K11" s="10"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="17">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2678,7 +2679,7 @@
       <c r="K12" s="10"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="17">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2710,7 +2711,7 @@
       <c r="K13" s="10"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="17">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -2741,7 +2742,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="17">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -2799,13 +2800,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="V21" sqref="L1:V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -2838,7 +2839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2869,7 +2870,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="17">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2900,7 +2901,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="17">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2931,7 +2932,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="17">
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -2962,7 +2963,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="17">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2993,7 +2994,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="17">
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3024,7 +3025,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="17">
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3055,7 +3056,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="17">
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3086,7 +3087,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="17">
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3117,7 +3118,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="17">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3148,7 +3149,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="17">
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3179,7 +3180,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="17">
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3210,7 +3211,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="17">
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -3241,7 +3242,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="17">
+    <row r="15" spans="1:11" ht="16.5">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -3272,7 +3273,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="17">
+    <row r="16" spans="1:11" ht="16.5">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -3303,7 +3304,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:22" ht="17">
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -3334,7 +3335,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:22" ht="17">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:22" ht="17">
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -3396,7 +3397,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:22" ht="17">
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:22" ht="17">
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -3458,7 +3459,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:22" ht="17">
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -3500,7 +3501,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" ht="17">
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -3531,7 +3532,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="17">
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -3573,7 +3574,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" ht="17">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -3604,7 +3605,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:22" ht="17">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -3635,7 +3636,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:22" ht="17">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3666,7 +3667,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:22" ht="17">
+    <row r="28" spans="1:22" ht="16.5">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -3697,7 +3698,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:22" ht="17">
+    <row r="29" spans="1:22" ht="16.5">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -3728,7 +3729,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:22" ht="17">
+    <row r="30" spans="1:22" ht="16.5">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -3759,7 +3760,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:22" ht="17">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -3790,7 +3791,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:22" ht="17">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -3821,7 +3822,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11" ht="16.5">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -3852,7 +3853,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:11" ht="16.5">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -3883,7 +3884,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:11" ht="16.5">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -3914,7 +3915,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:11" ht="16.5">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -3945,7 +3946,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:11" ht="16.5">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -3976,7 +3977,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:11" ht="16.5">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -4007,7 +4008,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" ht="17">
+    <row r="39" spans="1:11" ht="16.5">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -4038,7 +4039,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" ht="17">
+    <row r="40" spans="1:11" ht="16.5">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -4069,7 +4070,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="17">
+    <row r="41" spans="1:11" ht="16.5">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -4100,7 +4101,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" ht="17">
+    <row r="42" spans="1:11" ht="16.5">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -4131,7 +4132,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" ht="17">
+    <row r="43" spans="1:11" ht="16.5">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4144,7 +4145,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="17">
+    <row r="44" spans="1:11" ht="16.5">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4157,7 +4158,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" ht="17">
+    <row r="45" spans="1:11" ht="16.5">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4170,7 +4171,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" ht="17">
+    <row r="46" spans="1:11" ht="16.5">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -4240,9 +4241,9 @@
       <selection activeCell="I14" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -4269,7 +4270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1"/>
@@ -4280,7 +4281,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="11"/>
       <c r="C3" s="1"/>
@@ -4291,7 +4292,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5"/>
       <c r="B4" s="11"/>
       <c r="C4" s="1"/>
@@ -4302,7 +4303,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
@@ -4313,7 +4314,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="11"/>
       <c r="C6" s="1"/>
@@ -4324,7 +4325,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="1"/>
@@ -4335,7 +4336,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="11"/>
       <c r="C8" s="1"/>
@@ -4346,7 +4347,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="11"/>
       <c r="C9" s="1"/>
@@ -4357,7 +4358,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="11"/>
       <c r="C10" s="1"/>
@@ -4368,7 +4369,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="11"/>
       <c r="C11" s="1"/>
@@ -4379,7 +4380,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="11"/>
       <c r="C12" s="1"/>
@@ -4390,7 +4391,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
@@ -4401,7 +4402,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1"/>
@@ -4425,7 +4426,7 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="12"/>
@@ -4475,6 +4476,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4691,12 +4698,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
@@ -4706,6 +4707,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4722,21 +4740,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>